--- a/materiais/modelos_excel/colunasAdicionais_PADRAO_DVM.xlsx
+++ b/materiais/modelos_excel/colunasAdicionais_PADRAO_DVM.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="EstaPasta_de_trabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\dvmsys\materiais\modelos_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Developer\XAMPP\htdocs\erp_sistema\materiais\modelos_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-15" windowWidth="11955" windowHeight="3495" tabRatio="905" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="-15" windowWidth="11955" windowHeight="3495" tabRatio="905"/>
   </bookViews>
   <sheets>
     <sheet name="F. Rosto" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="86">
   <si>
     <t>REV.</t>
   </si>
@@ -260,18 +260,12 @@
     <t xml:space="preserve">  H -  CANCELADO</t>
   </si>
   <si>
-    <t>Nº DEVEMADA</t>
-  </si>
-  <si>
     <t>Preço Unit.</t>
   </si>
   <si>
     <t>Preço Total</t>
   </si>
   <si>
-    <t>Código Dvm</t>
-  </si>
-  <si>
     <t>Obs.</t>
   </si>
   <si>
@@ -291,6 +285,15 @@
   </si>
   <si>
     <t>PÁGINA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nº </t>
+  </si>
+  <si>
+    <t>Código</t>
+  </si>
+  <si>
+    <t>Nº</t>
   </si>
 </sst>
 </file>
@@ -789,6 +792,91 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -806,18 +894,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -833,15 +909,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -854,93 +921,53 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -960,53 +987,29 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1026,108 +1029,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="183372" name="Imagem 4" descr="logo_dvm_doc_tecnicos_color"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1704975" y="114300"/>
-          <a:ext cx="1828800" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>428626</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>85726</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>162723</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="182348" name="Imagem 4" descr="logo_dvm_doc_tecnicos_color"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3362326" y="104775"/>
-          <a:ext cx="1657350" cy="381798"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1481,8 +1382,8 @@
   <sheetPr codeName="Plan1"/>
   <dimension ref="A1:O374"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:N2"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6:M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1499,150 +1400,150 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
     </row>
     <row r="2" spans="1:15" s="12" customFormat="1" ht="24.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="70"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
     </row>
     <row r="3" spans="1:15" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="56"/>
+    </row>
+    <row r="4" spans="1:15" s="12" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="82"/>
+    </row>
+    <row r="5" spans="1:15" s="12" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="59" t="s">
-        <v>79</v>
-      </c>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="61"/>
-    </row>
-    <row r="4" spans="1:15" s="12" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="63"/>
-      <c r="N4" s="64"/>
-    </row>
-    <row r="5" spans="1:15" s="12" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="52" t="s">
-        <v>82</v>
-      </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="59" t="s">
-        <v>74</v>
-      </c>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60"/>
-      <c r="M5" s="61"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="56"/>
       <c r="N5" s="13" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="12" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="55" t="s">
-        <v>83</v>
-      </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="80"/>
-      <c r="L6" s="80"/>
-      <c r="M6" s="81"/>
+      <c r="A6" s="76" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="77"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="50"/>
       <c r="N6" s="14"/>
     </row>
     <row r="7" spans="1:15" s="12" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="58"/>
-      <c r="B7" s="58"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="58"/>
+      <c r="A7" s="79"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
+      <c r="L7" s="79"/>
+      <c r="M7" s="79"/>
+      <c r="N7" s="79"/>
     </row>
     <row r="8" spans="1:15" s="12" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="51"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="74"/>
+      <c r="K8" s="74"/>
+      <c r="L8" s="74"/>
+      <c r="M8" s="74"/>
+      <c r="N8" s="75"/>
     </row>
     <row r="9" spans="1:15" s="12" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
@@ -1685,11 +1586,11 @@
       </c>
       <c r="G10" s="27"/>
       <c r="H10" s="27"/>
-      <c r="I10" s="82" t="s">
+      <c r="I10" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="J10" s="82"/>
-      <c r="K10" s="82"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
       <c r="L10" s="26" t="s">
         <v>73</v>
       </c>
@@ -1703,15 +1604,15 @@
       <c r="B11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="65" t="s">
+      <c r="C11" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="62"/>
       <c r="J11" s="3" t="s">
         <v>5</v>
       </c>
@@ -1731,13 +1632,13 @@
     <row r="12" spans="1:15" s="12" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
       <c r="J12" s="30"/>
       <c r="K12" s="30"/>
       <c r="L12" s="4"/>
@@ -1747,13 +1648,13 @@
     <row r="13" spans="1:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
@@ -1763,13 +1664,13 @@
     <row r="14" spans="1:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="66"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
@@ -1779,13 +1680,13 @@
     <row r="15" spans="1:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="66"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -1796,13 +1697,13 @@
     <row r="16" spans="1:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="66"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
@@ -1812,13 +1713,13 @@
     <row r="17" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="78"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="61"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
@@ -1828,13 +1729,13 @@
     <row r="18" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="75"/>
-      <c r="I18" s="75"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
       <c r="J18" s="7"/>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
@@ -1844,13 +1745,13 @@
     <row r="19" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
-      <c r="C19" s="75"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="75"/>
-      <c r="I19" s="75"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
       <c r="J19" s="7"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
@@ -1860,13 +1761,13 @@
     <row r="20" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
-      <c r="C20" s="75"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="75"/>
-      <c r="I20" s="75"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
       <c r="J20" s="7"/>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
@@ -1876,13 +1777,13 @@
     <row r="21" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
-      <c r="C21" s="75"/>
-      <c r="D21" s="75"/>
-      <c r="E21" s="75"/>
-      <c r="F21" s="75"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="75"/>
-      <c r="I21" s="75"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
       <c r="J21" s="7"/>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
@@ -1892,13 +1793,13 @@
     <row r="22" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
-      <c r="C22" s="75"/>
-      <c r="D22" s="75"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="75"/>
-      <c r="H22" s="75"/>
-      <c r="I22" s="75"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
       <c r="J22" s="7"/>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
@@ -1908,13 +1809,13 @@
     <row r="23" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
-      <c r="C23" s="75"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="75"/>
-      <c r="I23" s="75"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
       <c r="J23" s="7"/>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
@@ -1924,13 +1825,13 @@
     <row r="24" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="75"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="75"/>
-      <c r="G24" s="75"/>
-      <c r="H24" s="75"/>
-      <c r="I24" s="75"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
       <c r="J24" s="7"/>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
@@ -1940,13 +1841,13 @@
     <row r="25" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
-      <c r="C25" s="75"/>
-      <c r="D25" s="75"/>
-      <c r="E25" s="75"/>
-      <c r="F25" s="75"/>
-      <c r="G25" s="75"/>
-      <c r="H25" s="75"/>
-      <c r="I25" s="75"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
       <c r="J25" s="7"/>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
@@ -1956,13 +1857,13 @@
     <row r="26" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
-      <c r="C26" s="75"/>
-      <c r="D26" s="75"/>
-      <c r="E26" s="75"/>
-      <c r="F26" s="75"/>
-      <c r="G26" s="75"/>
-      <c r="H26" s="75"/>
-      <c r="I26" s="75"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="47"/>
       <c r="J26" s="7"/>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
@@ -1972,13 +1873,13 @@
     <row r="27" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
-      <c r="C27" s="75"/>
-      <c r="D27" s="75"/>
-      <c r="E27" s="75"/>
-      <c r="F27" s="75"/>
-      <c r="G27" s="75"/>
-      <c r="H27" s="75"/>
-      <c r="I27" s="75"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
       <c r="J27" s="7"/>
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
@@ -1988,13 +1889,13 @@
     <row r="28" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
-      <c r="C28" s="75"/>
-      <c r="D28" s="75"/>
-      <c r="E28" s="75"/>
-      <c r="F28" s="75"/>
-      <c r="G28" s="75"/>
-      <c r="H28" s="75"/>
-      <c r="I28" s="75"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
       <c r="J28" s="7"/>
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
@@ -2004,13 +1905,13 @@
     <row r="29" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
-      <c r="C29" s="75"/>
-      <c r="D29" s="75"/>
-      <c r="E29" s="75"/>
-      <c r="F29" s="75"/>
-      <c r="G29" s="75"/>
-      <c r="H29" s="75"/>
-      <c r="I29" s="75"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="47"/>
       <c r="J29" s="7"/>
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
@@ -2020,13 +1921,13 @@
     <row r="30" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
-      <c r="C30" s="75"/>
-      <c r="D30" s="75"/>
-      <c r="E30" s="75"/>
-      <c r="F30" s="75"/>
-      <c r="G30" s="75"/>
-      <c r="H30" s="75"/>
-      <c r="I30" s="75"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
       <c r="J30" s="7"/>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
@@ -2036,13 +1937,13 @@
     <row r="31" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
-      <c r="C31" s="75"/>
-      <c r="D31" s="75"/>
-      <c r="E31" s="75"/>
-      <c r="F31" s="75"/>
-      <c r="G31" s="75"/>
-      <c r="H31" s="75"/>
-      <c r="I31" s="75"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
       <c r="J31" s="7"/>
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
@@ -2052,13 +1953,13 @@
     <row r="32" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
-      <c r="C32" s="75"/>
-      <c r="D32" s="75"/>
-      <c r="E32" s="75"/>
-      <c r="F32" s="75"/>
-      <c r="G32" s="75"/>
-      <c r="H32" s="75"/>
-      <c r="I32" s="75"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="47"/>
       <c r="J32" s="7"/>
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
@@ -7639,6 +7540,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="J1:N2"/>
+    <mergeCell ref="A8:N8"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A7:N7"/>
+    <mergeCell ref="J3:N3"/>
+    <mergeCell ref="J4:N4"/>
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="C13:I13"/>
+    <mergeCell ref="C15:I15"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="F1:I2"/>
+    <mergeCell ref="C29:I29"/>
+    <mergeCell ref="C30:I30"/>
+    <mergeCell ref="C16:I16"/>
+    <mergeCell ref="C17:I17"/>
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="C18:I18"/>
     <mergeCell ref="C32:I32"/>
     <mergeCell ref="J6:M6"/>
     <mergeCell ref="A5:I5"/>
@@ -7655,26 +7576,6 @@
     <mergeCell ref="C28:I28"/>
     <mergeCell ref="C23:I23"/>
     <mergeCell ref="C24:I24"/>
-    <mergeCell ref="C29:I29"/>
-    <mergeCell ref="C30:I30"/>
-    <mergeCell ref="C16:I16"/>
-    <mergeCell ref="C17:I17"/>
-    <mergeCell ref="C14:I14"/>
-    <mergeCell ref="C18:I18"/>
-    <mergeCell ref="C11:I11"/>
-    <mergeCell ref="C12:I12"/>
-    <mergeCell ref="C13:I13"/>
-    <mergeCell ref="C15:I15"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="F1:I2"/>
-    <mergeCell ref="J1:N2"/>
-    <mergeCell ref="A8:N8"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A7:N7"/>
-    <mergeCell ref="J3:N3"/>
-    <mergeCell ref="J4:N4"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.98425196850393704" right="0.39370078740157483" top="0.59055118110236227" bottom="0.39370078740157483" header="1.4566929133858268" footer="7.874015748031496E-2"/>
@@ -7683,7 +7584,6 @@
     <oddHeader xml:space="preserve">&amp;L  &amp;R&amp;"Arial,Negrito"&amp;P/&amp;N         </oddHeader>
     <oddFooter>&amp;L&amp;6PE-G-607_ Rev.5</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7691,8 +7591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7713,87 +7613,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="104">
+      <c r="B1" s="83"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="91">
         <f>'F. Rosto'!J1</f>
         <v>0</v>
       </c>
-      <c r="H1" s="105"/>
-      <c r="I1" s="106"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="93"/>
     </row>
     <row r="2" spans="1:12" s="12" customFormat="1" ht="24.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="97"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="109"/>
+      <c r="A2" s="84"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="96"/>
       <c r="K2" s="17"/>
       <c r="L2" s="17"/>
     </row>
     <row r="3" spans="1:12" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="93" t="str">
+      <c r="A3" s="99" t="str">
         <f>'F. Rosto'!A3:I3</f>
         <v>TITULO 1</v>
       </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="60" t="s">
-        <v>79</v>
-      </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="61"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="56"/>
       <c r="I3" s="13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K3" s="17"/>
       <c r="L3" s="17"/>
     </row>
     <row r="4" spans="1:12" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="52" t="str">
+      <c r="A4" s="51" t="str">
         <f>'F. Rosto'!A4:I4</f>
         <v>TITULO 2</v>
       </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="89" t="e">
+      <c r="B4" s="52"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="108" t="e">
         <f>'F. Rosto'!J4:M4</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="90"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="109"/>
       <c r="I4" s="45"/>
       <c r="K4" s="17"/>
       <c r="L4" s="17"/>
     </row>
     <row r="5" spans="1:12" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="52" t="str">
+      <c r="A5" s="51" t="str">
         <f>'F. Rosto'!A5:I5</f>
         <v>TITULO 3</v>
       </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="60" t="s">
-        <v>74</v>
-      </c>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="61"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="56"/>
       <c r="I5" s="46" t="s">
         <v>0</v>
       </c>
@@ -7801,20 +7701,20 @@
       <c r="L5" s="17"/>
     </row>
     <row r="6" spans="1:12" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="55" t="str">
+      <c r="A6" s="76" t="str">
         <f>'F. Rosto'!A6:I6</f>
         <v>TITULO 4</v>
       </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="89" t="e">
+      <c r="B6" s="77"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="108" t="e">
         <f>'F. Rosto'!J6:M6</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="90"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="108"/>
+      <c r="H6" s="109"/>
       <c r="I6" s="45">
         <f>'F. Rosto'!N6</f>
         <v>0</v>
@@ -7823,37 +7723,37 @@
       <c r="L6" s="17"/>
     </row>
     <row r="7" spans="1:12" s="12" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="101"/>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
+      <c r="A7" s="88"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="89"/>
       <c r="K7" s="17"/>
       <c r="L7" s="17"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="103"/>
-      <c r="B8" s="103"/>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
+      <c r="A8" s="90"/>
+      <c r="B8" s="90"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="90"/>
+      <c r="F8" s="90"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="90"/>
+      <c r="I8" s="90"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="98" t="s">
+      <c r="B9" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="98"/>
+      <c r="C9" s="85"/>
       <c r="D9" s="29" t="s">
         <v>17</v>
       </c>
@@ -7861,24 +7761,24 @@
         <v>16</v>
       </c>
       <c r="F9" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="G9" s="32" t="s">
+      <c r="H9" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="I9" s="31" t="s">
         <v>76</v>
-      </c>
-      <c r="H9" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="I9" s="31" t="s">
-        <v>78</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="40"/>
-      <c r="B10" s="99"/>
-      <c r="C10" s="100"/>
+      <c r="B10" s="86"/>
+      <c r="C10" s="87"/>
       <c r="D10" s="40"/>
       <c r="E10" s="41"/>
       <c r="F10" s="42"/>
@@ -7890,8 +7790,8 @@
     </row>
     <row r="11" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="35"/>
-      <c r="B11" s="91"/>
-      <c r="C11" s="92"/>
+      <c r="B11" s="97"/>
+      <c r="C11" s="98"/>
       <c r="D11" s="35"/>
       <c r="E11" s="36"/>
       <c r="F11" s="37"/>
@@ -7904,17 +7804,17 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="16">
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="A7:I7"/>
     <mergeCell ref="A8:I8"/>
     <mergeCell ref="G1:I2"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
     <mergeCell ref="C1:F2"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="D4:H4"/>
@@ -7925,8 +7825,8 @@
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader xml:space="preserve">&amp;R&amp;P/&amp;N                             </oddHeader>
-    <oddFooter>&amp;L&amp;6PE-G-607_ Rev.5</oddFooter>
+    <oddFooter xml:space="preserve">&amp;L&amp;6
+</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>